--- a/static/product_barcodes.xlsx
+++ b/static/product_barcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CelinaT\Documents\DTG-Studium\Semester_4\Theoriephase\Web\GIT\ScannerMarket\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36e69f4883031615/Studium/S4/WEB/local clone repo/ScannerMarket/ScannerMarket/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3116D901-FF00-4E39-BBCE-CD5045791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3116D901-FF00-4E39-BBCE-CD5045791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0565BB40-12CE-414D-9811-9B5BE48EB14E}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="-1875" windowWidth="14400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="627">
   <si>
     <t>Getränke</t>
   </si>
@@ -1900,6 +1900,12 @@
   </si>
   <si>
     <t>Pasta, Reis &amp; Nüsse</t>
+  </si>
+  <si>
+    <t>20194987</t>
+  </si>
+  <si>
+    <t>20445928</t>
   </si>
 </sst>
 </file>
@@ -2230,39 +2236,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="2"/>
-    <col min="4" max="4" width="29.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="2"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="2"/>
+    <col min="1" max="1" width="16.53125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" style="2"/>
+    <col min="4" max="4" width="29.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" style="2"/>
+    <col min="6" max="6" width="20.1328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" style="2"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="2"/>
-    <col min="10" max="10" width="18.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="2"/>
-    <col min="12" max="12" width="19.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" style="2"/>
-    <col min="16" max="16" width="24.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="2"/>
+    <col min="9" max="9" width="10.86328125" style="2"/>
+    <col min="10" max="10" width="18.53125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" style="2"/>
+    <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.19921875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.86328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.86328125" style="2"/>
+    <col min="16" max="16" width="24.46484375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.86328125" style="2"/>
     <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" style="2"/>
-    <col min="20" max="20" width="23.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.86328125" style="2"/>
+    <col min="20" max="20" width="23.796875" style="1" customWidth="1"/>
     <col min="21" max="21" width="17.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="27.88671875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.88671875" style="2"/>
-    <col min="24" max="24" width="21.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="27.86328125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.86328125" style="2"/>
+    <col min="24" max="24" width="21.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>617</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>120</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>117</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -2892,7 +2898,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>130</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>133</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>336</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>336</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>337</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>338</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>351</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>351</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>351</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>351</v>
       </c>
@@ -3706,7 +3712,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>351</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>353</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>353</v>
       </c>
@@ -3928,7 +3934,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>353</v>
       </c>
@@ -4002,12 +4008,12 @@
         <v>601</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B25" s="1">
-        <v>20194987</v>
+      <c r="B25" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>386</v>
@@ -4070,7 +4076,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>392</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>393</v>
       </c>
@@ -4160,8 +4166,8 @@
       <c r="I27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="1">
-        <v>20445928</v>
+      <c r="J27" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>360</v>
@@ -4194,7 +4200,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>395</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>395</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C30" s="2" t="s">
         <v>386</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C31" s="2" t="s">
         <v>386</v>
       </c>
@@ -4430,7 +4436,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C32" s="2" t="s">
         <v>386</v>
       </c>
@@ -4480,7 +4486,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C33" s="2" t="s">
         <v>386</v>
       </c>
@@ -4530,7 +4536,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C34" s="2" t="s">
         <v>388</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C35" s="2" t="s">
         <v>389</v>
       </c>
@@ -4630,7 +4636,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C36" s="2" t="s">
         <v>79</v>
       </c>
@@ -4668,7 +4674,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C37" s="2" t="s">
         <v>79</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C38" s="2" t="s">
         <v>79</v>
       </c>
@@ -4744,7 +4750,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C39" s="2" t="s">
         <v>390</v>
       </c>
@@ -4782,7 +4788,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C40" s="2" t="s">
         <v>391</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C41" s="2" t="s">
         <v>396</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C42" s="2" t="s">
         <v>397</v>
       </c>
@@ -4872,7 +4878,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.45">
       <c r="E43" s="2" t="s">
         <v>151</v>
       </c>
@@ -4886,7 +4892,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.45">
       <c r="E44" s="2" t="s">
         <v>151</v>
       </c>
@@ -4900,7 +4906,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.45">
       <c r="E45" s="2" t="s">
         <v>152</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:22" x14ac:dyDescent="0.45">
       <c r="E46" s="2" t="s">
         <v>33</v>
       </c>
@@ -4928,7 +4934,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:22" x14ac:dyDescent="0.45">
       <c r="E47" s="2" t="s">
         <v>152</v>
       </c>
@@ -4942,7 +4948,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:22" x14ac:dyDescent="0.45">
       <c r="E48" s="2" t="s">
         <v>33</v>
       </c>
@@ -4956,7 +4962,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E49" s="2" t="s">
         <v>153</v>
       </c>
@@ -4970,7 +4976,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4984,7 +4990,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E51" s="2" t="s">
         <v>155</v>
       </c>
@@ -4998,7 +5004,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -5012,7 +5018,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E53" s="2" t="s">
         <v>155</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E54" s="2" t="s">
         <v>156</v>
       </c>
@@ -5028,7 +5034,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E55" s="2" t="s">
         <v>156</v>
       </c>
@@ -5036,7 +5042,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E56" s="2" t="s">
         <v>157</v>
       </c>
@@ -5044,7 +5050,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E57" s="2" t="s">
         <v>158</v>
       </c>
@@ -5052,7 +5058,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E58" s="2" t="s">
         <v>159</v>
       </c>
@@ -5060,7 +5066,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E59" s="2" t="s">
         <v>141</v>
       </c>

--- a/static/product_barcodes.xlsx
+++ b/static/product_barcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36e69f4883031615/Studium/S4/WEB/local clone repo/ScannerMarket/ScannerMarket/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CelinaT\Documents\DTG-Studium\Semester_4\Theoriephase\Web\GIT\ScannerMarket\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3116D901-FF00-4E39-BBCE-CD5045791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0565BB40-12CE-414D-9811-9B5BE48EB14E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3116D901-FF00-4E39-BBCE-CD5045791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14400" yWindow="-1875" windowWidth="14400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="625">
   <si>
     <t>Getränke</t>
   </si>
@@ -1900,12 +1900,6 @@
   </si>
   <si>
     <t>Pasta, Reis &amp; Nüsse</t>
-  </si>
-  <si>
-    <t>20194987</t>
-  </si>
-  <si>
-    <t>20445928</t>
   </si>
 </sst>
 </file>
@@ -2236,39 +2230,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.53125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" style="2"/>
-    <col min="4" max="4" width="29.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.86328125" style="2"/>
-    <col min="6" max="6" width="20.1328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" style="2"/>
+    <col min="1" max="1" width="16.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="2"/>
+    <col min="4" max="4" width="29.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="2"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="2"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" style="2"/>
-    <col min="10" max="10" width="18.53125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.86328125" style="2"/>
-    <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.86328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.86328125" style="2"/>
-    <col min="16" max="16" width="24.46484375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.86328125" style="2"/>
+    <col min="9" max="9" width="10.88671875" style="2"/>
+    <col min="10" max="10" width="18.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="2"/>
+    <col min="12" max="12" width="19.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" style="2"/>
+    <col min="16" max="16" width="24.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="2"/>
     <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.86328125" style="2"/>
-    <col min="20" max="20" width="23.796875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" style="2"/>
+    <col min="20" max="20" width="23.77734375" style="1" customWidth="1"/>
     <col min="21" max="21" width="17.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="27.86328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.86328125" style="2"/>
-    <col min="24" max="24" width="21.1328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="27.88671875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" style="2"/>
+    <col min="24" max="24" width="21.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>617</v>
       </c>
@@ -2306,7 +2300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2380,7 +2374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
@@ -2454,7 +2448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
@@ -2528,7 +2522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>120</v>
       </c>
@@ -2602,7 +2596,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
@@ -2676,7 +2670,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
@@ -2750,7 +2744,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>117</v>
       </c>
@@ -2824,7 +2818,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
@@ -2972,7 +2966,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>130</v>
       </c>
@@ -3046,7 +3040,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>133</v>
       </c>
@@ -3120,7 +3114,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>336</v>
       </c>
@@ -3194,7 +3188,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>336</v>
       </c>
@@ -3268,7 +3262,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>337</v>
       </c>
@@ -3342,7 +3336,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>338</v>
       </c>
@@ -3416,7 +3410,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>351</v>
       </c>
@@ -3490,7 +3484,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>351</v>
       </c>
@@ -3564,7 +3558,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>351</v>
       </c>
@@ -3638,7 +3632,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>351</v>
       </c>
@@ -3712,7 +3706,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>351</v>
       </c>
@@ -3786,7 +3780,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>353</v>
       </c>
@@ -3860,7 +3854,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>353</v>
       </c>
@@ -3934,7 +3928,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>353</v>
       </c>
@@ -4008,12 +4002,12 @@
         <v>601</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>625</v>
+      <c r="B25" s="1">
+        <v>20194987</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>386</v>
@@ -4076,7 +4070,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>392</v>
       </c>
@@ -4138,7 +4132,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>393</v>
       </c>
@@ -4166,8 +4160,8 @@
       <c r="I27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>626</v>
+      <c r="J27" s="1">
+        <v>20445928</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>360</v>
@@ -4200,7 +4194,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>395</v>
       </c>
@@ -4262,7 +4256,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>395</v>
       </c>
@@ -4324,7 +4318,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
         <v>386</v>
       </c>
@@ -4380,7 +4374,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>386</v>
       </c>
@@ -4436,7 +4430,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
         <v>386</v>
       </c>
@@ -4486,7 +4480,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>386</v>
       </c>
@@ -4536,7 +4530,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
         <v>388</v>
       </c>
@@ -4586,7 +4580,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
         <v>389</v>
       </c>
@@ -4636,7 +4630,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
         <v>79</v>
       </c>
@@ -4674,7 +4668,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
         <v>79</v>
       </c>
@@ -4712,7 +4706,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
         <v>79</v>
       </c>
@@ -4750,7 +4744,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
         <v>390</v>
       </c>
@@ -4788,7 +4782,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
         <v>391</v>
       </c>
@@ -4826,7 +4820,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
         <v>396</v>
       </c>
@@ -4858,7 +4852,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
         <v>397</v>
       </c>
@@ -4878,7 +4872,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E43" s="2" t="s">
         <v>151</v>
       </c>
@@ -4892,7 +4886,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E44" s="2" t="s">
         <v>151</v>
       </c>
@@ -4906,7 +4900,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E45" s="2" t="s">
         <v>152</v>
       </c>
@@ -4920,7 +4914,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E46" s="2" t="s">
         <v>33</v>
       </c>
@@ -4934,7 +4928,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E47" s="2" t="s">
         <v>152</v>
       </c>
@@ -4948,7 +4942,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E48" s="2" t="s">
         <v>33</v>
       </c>
@@ -4962,7 +4956,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E49" s="2" t="s">
         <v>153</v>
       </c>
@@ -4976,7 +4970,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4990,7 +4984,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E51" s="2" t="s">
         <v>155</v>
       </c>
@@ -5004,7 +4998,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -5018,7 +5012,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53" s="2" t="s">
         <v>155</v>
       </c>
@@ -5026,7 +5020,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54" s="2" t="s">
         <v>156</v>
       </c>
@@ -5034,7 +5028,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55" s="2" t="s">
         <v>156</v>
       </c>
@@ -5042,7 +5036,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E56" s="2" t="s">
         <v>157</v>
       </c>
@@ -5050,7 +5044,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E57" s="2" t="s">
         <v>158</v>
       </c>
@@ -5058,7 +5052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E58" s="2" t="s">
         <v>159</v>
       </c>
@@ -5066,7 +5060,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E59" s="2" t="s">
         <v>141</v>
       </c>

--- a/static/product_barcodes.xlsx
+++ b/static/product_barcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CelinaT\Documents\DTG-Studium\Semester_4\Theoriephase\Web\GIT\ScannerMarket\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36e69f4883031615/Studium/S4/WEB/local clone repo/ScannerMarket/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3116D901-FF00-4E39-BBCE-CD5045791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3116D901-FF00-4E39-BBCE-CD5045791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D01F2908-B95F-4103-9667-E7273F2F7806}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="-1875" windowWidth="14400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2228,2843 +2228,2845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:AJ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="2"/>
-    <col min="4" max="4" width="29.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="2"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="2"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="2"/>
-    <col min="10" max="10" width="18.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="2"/>
-    <col min="12" max="12" width="19.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" style="2"/>
-    <col min="16" max="16" width="24.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="2"/>
-    <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" style="2"/>
-    <col min="20" max="20" width="23.77734375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="27.88671875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.88671875" style="2"/>
-    <col min="24" max="24" width="21.109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.53125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="2"/>
+    <col min="5" max="5" width="29.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" style="2"/>
+    <col min="8" max="9" width="20.1328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86328125" style="2"/>
+    <col min="11" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.86328125" style="2"/>
+    <col min="14" max="15" width="18.53125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.86328125" style="2"/>
+    <col min="17" max="18" width="19.19921875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.19921875" style="2" customWidth="1"/>
+    <col min="20" max="21" width="21.86328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.86328125" style="2"/>
+    <col min="23" max="24" width="24.46484375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.86328125" style="2"/>
+    <col min="26" max="27" width="16.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.86328125" style="2"/>
+    <col min="29" max="30" width="23.796875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" style="2" customWidth="1"/>
+    <col min="32" max="33" width="27.86328125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.86328125" style="2"/>
+    <col min="35" max="35" width="21.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>42376101</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="1">
+      <c r="T3" s="1">
         <v>40056050</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>90433627</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="1">
+      <c r="Z5" s="1">
         <v>20757601</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="1">
+      <c r="Z6" s="1">
         <v>42022244</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="1">
         <v>115728</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>42382607</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N8" s="1">
+      <c r="T8" s="1">
         <v>76106897</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="1">
+      <c r="W8" s="1">
         <v>29066728</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="AB8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B9" s="1">
         <v>20205775</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="AI9" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="1">
+      <c r="N10" s="1">
         <v>20259488</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="T10" s="1">
+      <c r="AC10" s="1">
         <v>40804002</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="AI10" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="AI11" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R12" s="1">
+      <c r="Z12" s="1">
         <v>40255729</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="T12" s="1">
+      <c r="AC12" s="1">
         <v>20702069</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="AE12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="AH12" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="AI12" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="AB13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="AE13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="AH13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="AI13" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B14" s="1">
         <v>29011155</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="AB14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="AE14" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="AH14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="AI14" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Y15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="AB15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="AE15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="AH15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="AI15" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>338</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L16" s="1">
+      <c r="Q16" s="1">
         <v>42399780</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="P16" s="1">
+      <c r="W16" s="1">
         <v>29068050</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="AB16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="AE16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="AH16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="AI16" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B17" s="1">
         <v>20551926</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="V17" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="AE17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="AI17" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="V18" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="AB18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="AE18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="AH18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="AI18" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="V19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Y19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="AB19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="T19" s="1">
+      <c r="AC19" s="1">
         <v>40081588</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="AE19" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="W19" s="2" t="s">
+      <c r="AH19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="AI19" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20" s="1">
         <v>20148027</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="S20" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="V20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="AB20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="AE20" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="AH20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="AI20" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>42203414</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="N21" s="1">
+      <c r="T21" s="1">
         <v>42094722</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="V21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="AB21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="AE21" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="AH21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="V22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Y22" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="AB22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="AE22" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="AH22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="AI22" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>54491069</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="R23" s="1">
+      <c r="Z23" s="1">
         <v>40255675</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="AB23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="AC23" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="AE23" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="AH23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="AI23" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="L24" s="1">
+      <c r="Q24" s="1">
         <v>42394501</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="V24" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Y24" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="R24" s="1">
+      <c r="Z24" s="1">
         <v>40255705</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="AB24" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="AC24" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="AE24" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="W24" s="2" t="s">
+      <c r="AH24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="AI24" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B25" s="1">
         <v>20194987</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="V25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Y25" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="AB25" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="AC25" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="AE25" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="AH25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="AI25" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="S26" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="V26" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Y26" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="AB26" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="AC26" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="AE26" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="AF26" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="1">
+      <c r="N27" s="1">
         <v>20445928</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="V27" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="W27" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Y27" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="AB27" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="T27" s="1">
+      <c r="AC27" s="1">
         <v>40397658</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="AE27" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="AF27" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H28" s="1">
+      <c r="K28" s="1">
         <v>20118907</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="1">
+      <c r="N28" s="1">
         <v>3635353</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="S28" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="V28" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Y28" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="AB28" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="AC28" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="AE28" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="AF28" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="S29" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Y29" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="AB29" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="AC29" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="AE29" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="AF29" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="D30" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="V30" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Y30" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="Z30" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="AB30" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="T30" s="1">
+      <c r="AC30" s="1">
         <v>24000011859</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="AE30" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="AF30" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C31" s="2" t="s">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="D31" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="1">
+      <c r="H31" s="1">
         <v>40084701</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H31" s="1">
+      <c r="K31" s="1">
         <v>43115525</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="S31" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="V31" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Y31" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="AB31" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="AE31" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="D32" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="S32" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="V32" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="W32" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Y32" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="Z32" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="AB32" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="AC32" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="AE32" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="AF32" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="D33" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="1">
+      <c r="H33" s="1">
         <v>80177616</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="S33" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="V33" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Y33" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="Z33" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="AB33" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="AC33" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="AE33" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="AF33" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C34" s="2" t="s">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="D34" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="S34" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="V34" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Y34" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="Z34" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="AB34" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="AC34" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="AE34" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="AF34" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C35" s="2" t="s">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="D35" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="S35" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="V35" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="W35" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Y35" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="Z35" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="AB35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="AC35" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="AE35" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="AF35" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C36" s="2" t="s">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="D36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="S36" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="V36" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="Y36" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="Z36" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="AB36" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="AC36" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C37" s="2" t="s">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="D37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="S37" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="V37" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="W37" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Y37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="Z37" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="AB37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="AC37" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="D38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="S38" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="V38" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="W38" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Y38" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="Z38" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="AB38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="AC38" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="D39" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="S39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="T39" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="V39" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="W39" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Y39" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="Z39" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="AB39" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="AC39" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C40" s="2" t="s">
+    <row r="40" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="D40" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="S40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="V40" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="W40" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="Y40" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="Z40" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="AB40" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="AC40" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C41" s="2" t="s">
+    <row r="41" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="D41" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="S41" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="V41" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="W41" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="AB41" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="AC41" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
+    <row r="42" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="D42" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="V42" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="W42" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E43" s="2" t="s">
+    <row r="43" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="G43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="V43" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="W43" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E44" s="2" t="s">
+    <row r="44" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="G44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="V44" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="W44" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E45" s="2" t="s">
+    <row r="45" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="G45" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="V45" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="W45" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E46" s="2" t="s">
+    <row r="46" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="G46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="V46" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="W46" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E47" s="2" t="s">
+    <row r="47" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="G47" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="V47" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="W47" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E48" s="2" t="s">
+    <row r="48" spans="4:32" x14ac:dyDescent="0.45">
+      <c r="G48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="V48" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="W48" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E49" s="2" t="s">
+    <row r="49" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="V49" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="W49" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E50" s="2" t="s">
+    <row r="50" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="V50" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="W50" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E51" s="2" t="s">
+    <row r="51" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="V51" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="W51" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E52" s="2" t="s">
+    <row r="52" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="V52" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="W52" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E53" s="2" t="s">
+    <row r="53" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G53" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E54" s="2" t="s">
+    <row r="54" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G54" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E55" s="2" t="s">
+    <row r="55" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G55" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E56" s="2" t="s">
+    <row r="56" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G56" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E57" s="2" t="s">
+    <row r="57" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G57" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E58" s="2" t="s">
+    <row r="58" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E59" s="2" t="s">
+    <row r="59" spans="7:23" x14ac:dyDescent="0.45">
+      <c r="G59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>436</v>
       </c>
     </row>

--- a/static/product_barcodes.xlsx
+++ b/static/product_barcodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CelinaT\Documents\DTG-Studium\Semester_4\Theoriephase\Web\GIT\ScannerMarket\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3116D901-FF00-4E39-BBCE-CD5045791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D550E20-BF91-40BC-A03A-0B8E241091CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="-1875" windowWidth="14400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="623">
   <si>
     <t>Getränke</t>
   </si>
@@ -318,9 +318,6 @@
     <t>back bröt</t>
   </si>
   <si>
-    <t>aubergine</t>
-  </si>
-  <si>
     <t>linsen</t>
   </si>
   <si>
@@ -526,9 +523,6 @@
   </si>
   <si>
     <t>rahm</t>
-  </si>
-  <si>
-    <t>nuggets</t>
   </si>
   <si>
     <t>knorr</t>
@@ -2230,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2264,37 +2258,37 @@
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>622</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>3</v>
@@ -2376,22 +2370,22 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>42</v>
@@ -2403,13 +2397,13 @@
         <v>63</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>19</v>
@@ -2418,10 +2412,10 @@
         <v>40056050</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>15</v>
@@ -2433,7 +2427,7 @@
         <v>59</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>10</v>
@@ -2450,10 +2444,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -2465,37 +2459,37 @@
         <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>89</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>30</v>
@@ -2524,52 +2518,52 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>37</v>
@@ -2587,63 +2581,63 @@
         <v>45</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>85</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>44</v>
@@ -2655,98 +2649,98 @@
         <v>70</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>83</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>95</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="1">
         <v>115728</v>
@@ -2758,37 +2752,37 @@
         <v>42382607</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N8" s="1">
         <v>76106897</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P8" s="1">
         <v>29066728</v>
@@ -2803,24 +2797,24 @@
         <v>87</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1">
         <v>20205775</v>
@@ -2829,43 +2823,43 @@
         <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>77</v>
@@ -2877,75 +2871,75 @@
         <v>88</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" s="1">
-        <v>20259488</v>
+        <v>159</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>86</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>90</v>
@@ -2954,243 +2948,243 @@
         <v>40804002</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>69</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>69</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R12" s="1">
         <v>40255729</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T12" s="1">
-        <v>20702069</v>
+        <v>100</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B14" s="1">
         <v>29011155</v>
@@ -3199,511 +3193,511 @@
         <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>162</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L16" s="1">
         <v>42399780</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="P16" s="1">
-        <v>29068050</v>
+      <c r="P16" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="1">
-        <v>20551926</v>
+        <v>349</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>163</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T18" s="1">
+        <v>40081588</v>
+      </c>
+      <c r="U18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="V18" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="R19" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T19" s="1">
-        <v>40081588</v>
+        <v>126</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H20" s="1">
-        <v>20148027</v>
+        <v>363</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>127</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
@@ -3711,7 +3705,7 @@
         <v>351</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>80</v>
@@ -3720,416 +3714,416 @@
         <v>42203414</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N21" s="1">
         <v>42094722</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D23" s="1">
         <v>54491069</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R23" s="1">
         <v>40255675</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>283</v>
+        <v>560</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>365</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>162</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L24" s="1">
         <v>42394501</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R24" s="1">
         <v>40255705</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B25" s="1">
-        <v>20194987</v>
+        <v>391</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>365</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>564</v>
+        <v>348</v>
+      </c>
+      <c r="T26" s="1">
+        <v>40397658</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
@@ -4137,497 +4131,461 @@
         <v>393</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>366</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="1">
-        <v>20445928</v>
+        <v>349</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="T27" s="1">
-        <v>40397658</v>
+        <v>370</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H28" s="1">
-        <v>20118907</v>
+        <v>367</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="1">
-        <v>3635353</v>
+        <v>349</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>345</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>372</v>
       </c>
       <c r="T28" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H29" s="1">
+        <v>43115525</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="U28" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="U29" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="T30" s="1">
-        <v>24000011859</v>
+        <v>392</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" s="1">
         <v>40084701</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H31" s="1">
-        <v>43115525</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>457</v>
+        <v>365</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>567</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>368</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>568</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F33" s="1">
         <v>80177616</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>379</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>395</v>
+        <v>136</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>569</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>442</v>
+        <v>215</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>570</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>441</v>
+        <v>214</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>571</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.3">
@@ -4635,34 +4593,34 @@
         <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>399</v>
+        <v>112</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>572</v>
@@ -4673,34 +4631,34 @@
         <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>573</v>
@@ -4711,34 +4669,34 @@
         <v>79</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>113</v>
+        <v>398</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>574</v>
@@ -4746,37 +4704,37 @@
     </row>
     <row r="39" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>575</v>
@@ -4784,134 +4742,122 @@
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>576</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>527</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E45" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>295</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="3:22" x14ac:dyDescent="0.3">
@@ -4919,27 +4865,27 @@
         <v>33</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E47" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>525</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="3:22" x14ac:dyDescent="0.3">
@@ -4947,125 +4893,119 @@
         <v>33</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>253</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E49" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E50" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E51" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>505</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E56" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E57" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E58" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/static/product_barcodes.xlsx
+++ b/static/product_barcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36e69f4883031615/Studium/S4/WEB/local clone repo/ScannerMarket/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3116D901-FF00-4E39-BBCE-CD5045791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D01F2908-B95F-4103-9667-E7273F2F7806}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{3116D901-FF00-4E39-BBCE-CD5045791A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D99C36-9DF0-4509-80AF-24D1CF0C1021}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="649">
   <si>
     <t>Getränke</t>
   </si>
@@ -1900,13 +1900,85 @@
   </si>
   <si>
     <t>Pasta, Reis &amp; Nüsse</t>
+  </si>
+  <si>
+    <t>prod1</t>
+  </si>
+  <si>
+    <t>prod3</t>
+  </si>
+  <si>
+    <t>prod4</t>
+  </si>
+  <si>
+    <t>prod5</t>
+  </si>
+  <si>
+    <t>prod6</t>
+  </si>
+  <si>
+    <t>prod7</t>
+  </si>
+  <si>
+    <t>prod8</t>
+  </si>
+  <si>
+    <t>prod9</t>
+  </si>
+  <si>
+    <t>prod10</t>
+  </si>
+  <si>
+    <t>prod11</t>
+  </si>
+  <si>
+    <t>prod12</t>
+  </si>
+  <si>
+    <t>prod2</t>
+  </si>
+  <si>
+    <t>Preis_Getränke</t>
+  </si>
+  <si>
+    <t>Preis_Fleischprodukte</t>
+  </si>
+  <si>
+    <t>Preis_Fisch &amp; Meeresfrüchte</t>
+  </si>
+  <si>
+    <t>Preis_Backwaren</t>
+  </si>
+  <si>
+    <t>Preis_Tiefkühlwaren</t>
+  </si>
+  <si>
+    <t>Preis_Gewürze &amp; Saucen</t>
+  </si>
+  <si>
+    <t>Preis_Süßwaren</t>
+  </si>
+  <si>
+    <t>Preis_Sonstiges</t>
+  </si>
+  <si>
+    <t>Preis_Konserven &amp; Konfitüren</t>
+  </si>
+  <si>
+    <t>Preis_Milchprodukte</t>
+  </si>
+  <si>
+    <t>Preis_Obst &amp; Gemüse</t>
+  </si>
+  <si>
+    <t>Preis_Pasta, Reis &amp; Nüsse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1922,16 +1994,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1939,15 +2082,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2230,2844 +2469,4252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="16.53125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.46484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.53125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625"/>
     <col min="4" max="4" width="10.86328125" style="2"/>
     <col min="5" max="5" width="29.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
     <col min="7" max="7" width="10.86328125" style="2"/>
-    <col min="8" max="9" width="20.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625"/>
     <col min="10" max="10" width="10.86328125" style="2"/>
-    <col min="11" max="12" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.06640625"/>
     <col min="13" max="13" width="10.86328125" style="2"/>
-    <col min="14" max="15" width="18.53125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.53125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.9296875" style="10" customWidth="1"/>
     <col min="16" max="16" width="10.86328125" style="2"/>
-    <col min="17" max="18" width="19.19921875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.19921875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.06640625"/>
     <col min="19" max="19" width="18.19921875" style="2" customWidth="1"/>
-    <col min="20" max="21" width="21.86328125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.86328125" style="2"/>
-    <col min="23" max="24" width="24.46484375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.86328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.06640625"/>
+    <col min="22" max="22" width="10.86328125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="24.46484375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.06640625"/>
     <col min="25" max="25" width="10.86328125" style="2"/>
-    <col min="26" max="27" width="16.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.06640625"/>
     <col min="28" max="28" width="10.86328125" style="2"/>
-    <col min="29" max="30" width="23.796875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="23.796875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.06640625"/>
     <col min="31" max="31" width="17.6640625" style="2" customWidth="1"/>
-    <col min="32" max="33" width="27.86328125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="27.86328125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="9.06640625"/>
     <col min="34" max="34" width="10.86328125" style="2"/>
     <col min="35" max="35" width="21.1328125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.06640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>625</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>626</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>618</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="I1" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="L1" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="O1" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="R1" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="T1" s="32" t="s">
         <v>621</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="U1" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="W1" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="X1" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AA1" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB1" s="46" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC1" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AD1" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="AE1" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="AF1" s="55" t="s">
         <v>624</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AG1" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="AH1" s="41" t="s">
+        <v>635</v>
+      </c>
+      <c r="AI1" s="42" t="s">
         <v>3</v>
+      </c>
+      <c r="AJ1" s="43" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="53">
+        <v>3.91</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <v>42376101</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="40">
+        <v>0.97</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="25">
+        <v>1.38</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="15">
+        <v>3.29</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="20">
+        <v>4.29</v>
+      </c>
+      <c r="S2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="U2" s="35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V2" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="X2" s="30">
+        <v>3.29</v>
+      </c>
+      <c r="Y2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AA2" s="35">
+        <v>1.78</v>
+      </c>
+      <c r="AB2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AD2" s="50">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AE2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AG2" s="58">
+        <v>2.09</v>
+      </c>
+      <c r="AH2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="44" t="s">
         <v>25</v>
+      </c>
+      <c r="AJ2" s="45">
+        <v>4.17</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="53">
+        <v>1.99</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="40">
+        <v>3.94</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="25">
+        <v>1.49</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="O3" s="15">
+        <v>3.18</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="20">
+        <v>3.89</v>
+      </c>
+      <c r="S3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="34">
         <v>40056050</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="U3" s="35">
+        <v>2.61</v>
+      </c>
+      <c r="V3" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="X3" s="30">
+        <v>2.39</v>
+      </c>
+      <c r="Y3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AA3" s="35">
+        <v>3.75</v>
+      </c>
+      <c r="AB3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AD3" s="50">
+        <v>2.69</v>
+      </c>
+      <c r="AE3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AG3" s="58">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AH3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI3" s="44" t="s">
         <v>22</v>
+      </c>
+      <c r="AJ3" s="45">
+        <v>1.19</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="53">
+        <v>3.11</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>90433627</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="9">
+        <v>1.76</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="40">
+        <v>1.45</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="25">
+        <v>2.19</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="O4" s="15">
+        <v>3.09</v>
+      </c>
+      <c r="P4" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="20">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="S4" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="U4" s="35">
+        <v>3.68</v>
+      </c>
+      <c r="V4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="X4" s="30">
+        <v>2.35</v>
+      </c>
+      <c r="Y4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AA4" s="35">
+        <v>1.82</v>
+      </c>
+      <c r="AB4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AD4" s="50">
+        <v>1.29</v>
+      </c>
+      <c r="AE4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AF4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AG4" s="58">
+        <v>4.49</v>
+      </c>
+      <c r="AH4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AI4" s="44" t="s">
         <v>24</v>
+      </c>
+      <c r="AJ4" s="45">
+        <v>3.98</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="53">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="40">
+        <v>4.41</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="25">
+        <v>1.49</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="O5" s="15">
+        <v>2.46</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="R5" s="20">
+        <v>1.99</v>
+      </c>
+      <c r="S5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="U5" s="35">
+        <v>3.19</v>
+      </c>
+      <c r="V5" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="X5" s="30">
+        <v>3.6</v>
+      </c>
+      <c r="Y5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="34">
         <v>20757601</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AA5" s="35">
+        <v>2.68</v>
+      </c>
+      <c r="AB5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AD5" s="50">
+        <v>2.94</v>
+      </c>
+      <c r="AE5" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AF5" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AG5" s="58">
+        <v>2.59</v>
+      </c>
+      <c r="AH5" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AI5" s="44" t="s">
         <v>257</v>
+      </c>
+      <c r="AJ5" s="45">
+        <v>2.36</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="53">
+        <v>3.13</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="9">
+        <v>1.61</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="40">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="25">
+        <v>1.69</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="O6" s="15">
+        <v>2.39</v>
+      </c>
+      <c r="P6" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="R6" s="20">
+        <v>2.98</v>
+      </c>
+      <c r="S6" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="U6" s="35">
+        <v>0.68</v>
+      </c>
+      <c r="V6" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="X6" s="30">
+        <v>3.49</v>
+      </c>
+      <c r="Y6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="34">
         <v>42022244</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AA6" s="35">
+        <v>1.17</v>
+      </c>
+      <c r="AB6" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AC6" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AD6" s="50">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AE6" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AF6" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AG6" s="58">
+        <v>0.99</v>
+      </c>
+      <c r="AH6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AI6" s="44" t="s">
         <v>259</v>
+      </c>
+      <c r="AJ6" s="45">
+        <v>6.41</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="53">
+        <v>3.77</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="9">
+        <v>1.31</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="40">
+        <v>1.89</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="L7" s="25">
+        <v>1.82</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="O7" s="15">
+        <v>2.69</v>
+      </c>
+      <c r="P7" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="R7" s="20">
+        <v>2.17</v>
+      </c>
+      <c r="S7" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="U7" s="35">
+        <v>1.99</v>
+      </c>
+      <c r="V7" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="X7" s="30">
+        <v>1.99</v>
+      </c>
+      <c r="Y7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AA7" s="35">
+        <v>2.71</v>
+      </c>
+      <c r="AB7" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AD7" s="50">
+        <v>2.09</v>
+      </c>
+      <c r="AE7" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AF7" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AG7" s="58">
+        <v>1.65</v>
+      </c>
+      <c r="AH7" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AI7" s="44" t="s">
         <v>258</v>
+      </c>
+      <c r="AJ7" s="45">
+        <v>3.49</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="52">
         <v>115728</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="53">
+        <v>0.82</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="8">
         <v>42382607</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="40">
+        <v>1.8</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="25">
+        <v>1.49</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="O8" s="15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="P8" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="R8" s="20">
+        <v>2.65</v>
+      </c>
+      <c r="S8" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="34">
         <v>76106897</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="U8" s="35">
+        <v>3.39</v>
+      </c>
+      <c r="V8" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="29">
         <v>29066728</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="X8" s="30">
+        <v>3.69</v>
+      </c>
+      <c r="Y8" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AA8" s="35">
+        <v>1.68</v>
+      </c>
+      <c r="AB8" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AD8" s="50">
+        <v>3.29</v>
+      </c>
+      <c r="AE8" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AF8" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AG8" s="58">
+        <v>1.82</v>
+      </c>
+      <c r="AH8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AI8" s="44" t="s">
         <v>108</v>
+      </c>
+      <c r="AJ8" s="45">
+        <v>2.35</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="52">
         <v>20205775</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="53">
+        <v>1.57</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="9">
+        <v>1.69</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="40">
+        <v>1.23</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="25">
+        <v>1.49</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="O9" s="15">
+        <v>2.79</v>
+      </c>
+      <c r="P9" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="R9" s="20">
+        <v>2.27</v>
+      </c>
+      <c r="S9" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="U9" s="35">
+        <v>1.21</v>
+      </c>
+      <c r="V9" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="X9" s="30">
+        <v>3.83</v>
+      </c>
+      <c r="Y9" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AA9" s="35">
+        <v>1.6</v>
+      </c>
+      <c r="AB9" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AC9" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AD9" s="50">
+        <v>3.41</v>
+      </c>
+      <c r="AE9" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AF9" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AG9" s="58">
+        <v>2.79</v>
+      </c>
+      <c r="AH9" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AI9" s="44" t="s">
         <v>616</v>
+      </c>
+      <c r="AJ9" s="45">
+        <v>7.49</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="53">
+        <v>2.81</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="40">
+        <v>2.73</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="25">
+        <v>0.84</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="14">
         <v>20259488</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="O10" s="15">
+        <v>2.67</v>
+      </c>
+      <c r="P10" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="R10" s="20">
+        <v>2.16</v>
+      </c>
+      <c r="S10" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="U10" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="V10" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="X10" s="30">
+        <v>2.92</v>
+      </c>
+      <c r="Y10" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z10" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AA10" s="35">
+        <v>4.29</v>
+      </c>
+      <c r="AB10" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="49">
         <v>40804002</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AD10" s="50">
+        <v>1.89</v>
+      </c>
+      <c r="AE10" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AF10" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AG10" s="58">
+        <v>1.99</v>
+      </c>
+      <c r="AH10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AI10" s="1" t="s">
+      <c r="AI10" s="44" t="s">
         <v>615</v>
+      </c>
+      <c r="AJ10" s="45">
+        <v>8.99</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="53">
+        <v>0.67</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="9">
+        <v>1.43</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="40">
+        <v>2.66</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="25">
+        <v>2</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="O11" s="15">
+        <v>2.19</v>
+      </c>
+      <c r="P11" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="R11" s="20">
+        <v>2.08</v>
+      </c>
+      <c r="S11" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="U11" s="35">
+        <v>2.92</v>
+      </c>
+      <c r="V11" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="X11" s="30">
+        <v>2.95</v>
+      </c>
+      <c r="Y11" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AA11" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="AB11" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AC11" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AD11" s="50">
+        <v>1.29</v>
+      </c>
+      <c r="AE11" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AF11" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AG11" s="58">
+        <v>1.79</v>
+      </c>
+      <c r="AH11" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AI11" s="1" t="s">
+      <c r="AI11" s="44" t="s">
         <v>614</v>
+      </c>
+      <c r="AJ11" s="45">
+        <v>2.79</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="53">
+        <v>1.78</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="9">
+        <v>1.43</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="40">
+        <v>1.01</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="O12" s="15">
+        <v>2.54</v>
+      </c>
+      <c r="P12" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="R12" s="20">
+        <v>3.55</v>
+      </c>
+      <c r="S12" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="U12" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="V12" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="X12" s="30">
+        <v>2.79</v>
+      </c>
+      <c r="Y12" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="34">
         <v>40255729</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AA12" s="35">
+        <v>0.79</v>
+      </c>
+      <c r="AB12" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12" s="49">
         <v>20702069</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AD12" s="50">
+        <v>1.34</v>
+      </c>
+      <c r="AE12" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AF12" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AG12" s="58">
+        <v>3.04</v>
+      </c>
+      <c r="AH12" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="AI12" s="1" t="s">
+      <c r="AI12" s="44" t="s">
         <v>613</v>
+      </c>
+      <c r="AJ12" s="45">
+        <v>18.489999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="53">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="G13" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="40">
+        <v>3.75</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="L13" s="25">
+        <v>1.19</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="O13" s="15">
+        <v>2.82</v>
+      </c>
+      <c r="P13" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="R13" s="20">
+        <v>4.22</v>
+      </c>
+      <c r="S13" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="U13" s="35">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="V13" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="X13" s="30">
+        <v>3.89</v>
+      </c>
+      <c r="Y13" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" s="34" t="s">
         <v>561</v>
       </c>
-      <c r="AB13" s="2" t="s">
+      <c r="AA13" s="35">
+        <v>1.62</v>
+      </c>
+      <c r="AB13" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AC13" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AD13" s="50">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AE13" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AF13" s="57" t="s">
         <v>578</v>
       </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AG13" s="58">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AH13" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AI13" s="44" t="s">
         <v>612</v>
+      </c>
+      <c r="AJ13" s="45">
+        <v>2.35</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="52">
         <v>29011155</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="9">
+        <v>1.26</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="40">
+        <v>0.89</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="25">
+        <v>1.29</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="O14" s="15">
+        <v>3.41</v>
+      </c>
+      <c r="P14" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="R14" s="20">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="S14" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="U14" s="35">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="V14" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="X14" s="30">
+        <v>5.03</v>
+      </c>
+      <c r="Y14" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="Z14" s="34" t="s">
         <v>560</v>
       </c>
-      <c r="AB14" s="2" t="s">
+      <c r="AA14" s="35">
+        <v>4.13</v>
+      </c>
+      <c r="AB14" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AC14" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AD14" s="50">
+        <v>2.88</v>
+      </c>
+      <c r="AE14" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="AF14" s="57" t="s">
         <v>599</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AG14" s="58">
+        <v>1.38</v>
+      </c>
+      <c r="AH14" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI14" s="1" t="s">
+      <c r="AI14" s="44" t="s">
         <v>611</v>
+      </c>
+      <c r="AJ14" s="45">
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="53">
+        <v>3.86</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="9">
+        <v>1.29</v>
+      </c>
+      <c r="G15" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="40">
+        <v>4.49</v>
+      </c>
+      <c r="J15" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="L15" s="25">
+        <v>1.69</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="O15" s="15">
+        <v>3.31</v>
+      </c>
+      <c r="P15" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="R15" s="20">
+        <v>2.36</v>
+      </c>
+      <c r="S15" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="V15" s="2" t="s">
+      <c r="U15" s="35">
+        <v>1.19</v>
+      </c>
+      <c r="V15" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="X15" s="30">
+        <v>2.99</v>
+      </c>
+      <c r="Y15" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AA15" s="35">
+        <v>1.65</v>
+      </c>
+      <c r="AB15" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AC15" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AD15" s="50">
+        <v>0.99</v>
+      </c>
+      <c r="AE15" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AF15" s="57" t="s">
         <v>598</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AG15" s="58">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AH15" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI15" s="1" t="s">
+      <c r="AI15" s="44" t="s">
         <v>610</v>
+      </c>
+      <c r="AJ15" s="45">
+        <v>1.89</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="53">
+        <v>3.92</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="9">
+        <v>1.99</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="I16" s="40">
+        <v>1.49</v>
+      </c>
+      <c r="J16" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="L16" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="O16" s="15">
+        <v>3.31</v>
+      </c>
+      <c r="P16" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="19">
         <v>42399780</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="R16" s="20">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="S16" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="U16" s="35">
+        <v>0.99</v>
+      </c>
+      <c r="V16" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="29">
         <v>29068050</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="X16" s="30">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Y16" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Z16" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="AB16" s="2" t="s">
+      <c r="AA16" s="35">
+        <v>4.22</v>
+      </c>
+      <c r="AB16" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AC16" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AD16" s="50">
+        <v>3.65</v>
+      </c>
+      <c r="AE16" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AF16" s="57" t="s">
         <v>597</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AG16" s="58">
+        <v>3.57</v>
+      </c>
+      <c r="AH16" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI16" s="1" t="s">
+      <c r="AI16" s="44" t="s">
         <v>609</v>
       </c>
+      <c r="AJ16" s="45">
+        <v>2.35</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A17" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="52">
         <v>20551926</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="53">
+        <v>2.72</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="9">
+        <v>1.65</v>
+      </c>
+      <c r="G17" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="I17" s="40">
+        <v>1.99</v>
+      </c>
+      <c r="J17" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="L17" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="O17" s="15">
+        <v>2.57</v>
+      </c>
+      <c r="P17" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="R17" s="20">
+        <v>3.3</v>
+      </c>
+      <c r="S17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="U17" s="35">
+        <v>1.79</v>
+      </c>
+      <c r="V17" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="X17" s="30">
+        <v>2.81</v>
+      </c>
+      <c r="Y17" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="34" t="s">
         <v>557</v>
       </c>
-      <c r="AB17" s="2" t="s">
+      <c r="AA17" s="35">
+        <v>3.45</v>
+      </c>
+      <c r="AB17" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AC17" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AD17" s="50">
+        <v>3.49</v>
+      </c>
+      <c r="AE17" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AF17" s="57" t="s">
         <v>596</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AG17" s="58">
+        <v>1.68</v>
+      </c>
+      <c r="AH17" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AI17" s="44" t="s">
         <v>608</v>
       </c>
+      <c r="AJ17" s="45">
+        <v>12.4</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A18" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="53">
+        <v>1.75</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="G18" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="I18" s="40">
+        <v>1.69</v>
+      </c>
+      <c r="J18" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="L18" s="25">
+        <v>1.32</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="O18" s="15">
+        <v>3.34</v>
+      </c>
+      <c r="P18" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="R18" s="20">
+        <v>2.74</v>
+      </c>
+      <c r="S18" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="U18" s="35">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="V18" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="X18" s="30">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Y18" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="34" t="s">
         <v>556</v>
       </c>
-      <c r="AB18" s="2" t="s">
+      <c r="AA18" s="35">
+        <v>3.16</v>
+      </c>
+      <c r="AB18" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AC18" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AD18" s="50">
+        <v>3.29</v>
+      </c>
+      <c r="AE18" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AF18" s="57" t="s">
         <v>595</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AG18" s="58">
+        <v>4.18</v>
+      </c>
+      <c r="AH18" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AI18" s="44" t="s">
         <v>607</v>
       </c>
+      <c r="AJ18" s="45">
+        <v>2.35</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A19" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="53">
+        <v>1.82</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="9">
+        <v>1.33</v>
+      </c>
+      <c r="G19" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="I19" s="40">
+        <v>2.15</v>
+      </c>
+      <c r="J19" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="L19" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="O19" s="15">
+        <v>3.11</v>
+      </c>
+      <c r="P19" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="R19" s="20">
+        <v>2.99</v>
+      </c>
+      <c r="S19" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="U19" s="35">
+        <v>3.37</v>
+      </c>
+      <c r="V19" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="X19" s="30">
+        <v>2.76</v>
+      </c>
+      <c r="Y19" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="Z19" s="34" t="s">
         <v>555</v>
       </c>
-      <c r="AB19" s="2" t="s">
+      <c r="AA19" s="35">
+        <v>2.89</v>
+      </c>
+      <c r="AB19" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC19" s="49">
         <v>40081588</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AD19" s="50">
+        <v>1.89</v>
+      </c>
+      <c r="AE19" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="AF19" s="1" t="s">
+      <c r="AF19" s="57" t="s">
         <v>594</v>
       </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AG19" s="58">
+        <v>2.9</v>
+      </c>
+      <c r="AH19" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI19" s="1" t="s">
+      <c r="AI19" s="44" t="s">
         <v>606</v>
       </c>
+      <c r="AJ19" s="45">
+        <v>5.93</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A20" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="53">
+        <v>1.6</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="I20" s="40">
+        <v>1.69</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="24">
         <v>20148027</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="25">
+        <v>0.82</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="O20" s="15">
+        <v>3.49</v>
+      </c>
+      <c r="P20" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="R20" s="20">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="S20" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="U20" s="35">
+        <v>0.53</v>
+      </c>
+      <c r="V20" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="X20" s="30">
+        <v>2.86</v>
+      </c>
+      <c r="Y20" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="34" t="s">
         <v>554</v>
       </c>
-      <c r="AB20" s="2" t="s">
+      <c r="AA20" s="35">
+        <v>3.29</v>
+      </c>
+      <c r="AB20" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AC20" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AD20" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="AE20" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="AF20" s="57" t="s">
         <v>593</v>
       </c>
-      <c r="AH20" s="2" t="s">
+      <c r="AG20" s="58">
+        <v>1.48</v>
+      </c>
+      <c r="AH20" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI20" s="1" t="s">
+      <c r="AI20" s="44" t="s">
         <v>605</v>
       </c>
+      <c r="AJ20" s="45">
+        <v>8.73</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A21" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="52" t="s">
         <v>407</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="53">
+        <v>3.16</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="8">
         <v>42203414</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="9">
+        <v>1.19</v>
+      </c>
+      <c r="G21" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="I21" s="40">
+        <v>3.75</v>
+      </c>
+      <c r="J21" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="25">
+        <v>0.71</v>
+      </c>
+      <c r="M21" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="O21" s="15">
+        <v>2.68</v>
+      </c>
+      <c r="P21" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="R21" s="20">
+        <v>4.04</v>
+      </c>
+      <c r="S21" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="34">
         <v>42094722</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="U21" s="35">
+        <v>1.79</v>
+      </c>
+      <c r="V21" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="X21" s="30">
+        <v>1.99</v>
+      </c>
+      <c r="Y21" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="AB21" s="2" t="s">
+      <c r="AA21" s="35">
+        <v>0.99</v>
+      </c>
+      <c r="AB21" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AC21" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AD21" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="AE21" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AF21" s="57" t="s">
         <v>592</v>
       </c>
-      <c r="AH21" s="2" t="s">
+      <c r="AG21" s="58">
+        <v>2.04</v>
+      </c>
+      <c r="AH21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AI21" s="44" t="s">
         <v>604</v>
       </c>
+      <c r="AJ21" s="45">
+        <v>3.63</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A22" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="52" t="s">
         <v>408</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="53">
+        <v>0.82</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="9">
+        <v>1.97</v>
+      </c>
+      <c r="G22" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="I22" s="40">
+        <v>1.69</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="L22" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="M22" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="O22" s="15">
+        <v>2.59</v>
+      </c>
+      <c r="P22" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="R22" s="20">
+        <v>3.36</v>
+      </c>
+      <c r="S22" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="U22" s="35">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="V22" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="X22" s="30">
+        <v>1.99</v>
+      </c>
+      <c r="Y22" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Z22" s="34" t="s">
         <v>552</v>
       </c>
-      <c r="AB22" s="2" t="s">
+      <c r="AA22" s="35">
+        <v>0.99</v>
+      </c>
+      <c r="AB22" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AC22" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AD22" s="50">
+        <v>3.96</v>
+      </c>
+      <c r="AE22" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AF22" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="AH22" s="2" t="s">
+      <c r="AG22" s="58">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AH22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI22" s="1" t="s">
+      <c r="AI22" s="44" t="s">
         <v>603</v>
       </c>
+      <c r="AJ22" s="45">
+        <v>17.43</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A23" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="53">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="8">
         <v>54491069</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="9">
+        <v>1.94</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="I23" s="40">
+        <v>1.37</v>
+      </c>
+      <c r="J23" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="L23" s="25">
+        <v>1.24</v>
+      </c>
+      <c r="M23" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="O23" s="15">
+        <v>2.77</v>
+      </c>
+      <c r="P23" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="R23" s="20">
+        <v>3.21</v>
+      </c>
+      <c r="S23" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="U23" s="35">
+        <v>0.45</v>
+      </c>
+      <c r="V23" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="X23" s="30">
+        <v>3.2</v>
+      </c>
+      <c r="Y23" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23" s="34">
         <v>40255675</v>
       </c>
-      <c r="AB23" s="2" t="s">
+      <c r="AA23" s="35">
+        <v>0.89</v>
+      </c>
+      <c r="AB23" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AC23" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AD23" s="50">
+        <v>2.99</v>
+      </c>
+      <c r="AE23" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AF23" s="57" t="s">
         <v>590</v>
       </c>
-      <c r="AH23" s="2" t="s">
+      <c r="AG23" s="58">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AH23" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AI23" s="44" t="s">
         <v>602</v>
       </c>
+      <c r="AJ23" s="45">
+        <v>2.29</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A24" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="53">
+        <v>2.09</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="I24" s="40">
+        <v>0.79</v>
+      </c>
+      <c r="J24" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="L24" s="25">
+        <v>0.89</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="O24" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="P24" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="19">
         <v>42394501</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="R24" s="20">
+        <v>3.44</v>
+      </c>
+      <c r="S24" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="V24" s="2" t="s">
+      <c r="U24" s="35">
+        <v>1.99</v>
+      </c>
+      <c r="V24" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="X24" s="30">
+        <v>2.38</v>
+      </c>
+      <c r="Y24" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z24" s="34">
         <v>40255705</v>
       </c>
-      <c r="AB24" s="2" t="s">
+      <c r="AA24" s="35">
+        <v>0.89</v>
+      </c>
+      <c r="AB24" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AC24" s="49" t="s">
         <v>562</v>
       </c>
-      <c r="AE24" s="2" t="s">
+      <c r="AD24" s="50">
+        <v>4.18</v>
+      </c>
+      <c r="AE24" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="AF24" s="1" t="s">
+      <c r="AF24" s="57" t="s">
         <v>589</v>
       </c>
-      <c r="AH24" s="2" t="s">
+      <c r="AG24" s="58">
+        <v>3.77</v>
+      </c>
+      <c r="AH24" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AI24" s="44" t="s">
         <v>601</v>
       </c>
+      <c r="AJ24" s="45">
+        <v>17.95</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A25" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="52">
         <v>20194987</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="53">
+        <v>1.82</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="G25" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="I25" s="40">
+        <v>1.49</v>
+      </c>
+      <c r="J25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="L25" s="25">
+        <v>1.01</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="O25" s="15">
+        <v>2.56</v>
+      </c>
+      <c r="S25" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="U25" s="35">
+        <v>1.99</v>
+      </c>
+      <c r="V25" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="X25" s="30">
+        <v>2.97</v>
+      </c>
+      <c r="Y25" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="Z25" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="AB25" s="2" t="s">
+      <c r="AA25" s="35">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AB25" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AC25" s="49" t="s">
         <v>563</v>
       </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AD25" s="50">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AE25" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AF25" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="AH25" s="2" t="s">
+      <c r="AG25" s="58">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AH25" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AI25" s="44" t="s">
         <v>600</v>
       </c>
+      <c r="AJ25" s="45">
+        <v>8.6300000000000008</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A26" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="52" t="s">
         <v>413</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="53">
+        <v>2.06</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="G26" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="I26" s="40">
+        <v>2.02</v>
+      </c>
+      <c r="J26" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="L26" s="25">
+        <v>1</v>
+      </c>
+      <c r="M26" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="O26" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="S26" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="34" t="s">
         <v>503</v>
       </c>
-      <c r="V26" s="2" t="s">
+      <c r="U26" s="35">
+        <v>1.99</v>
+      </c>
+      <c r="V26" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="Y26" s="2" t="s">
+      <c r="X26" s="30">
+        <v>3.61</v>
+      </c>
+      <c r="Y26" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="AB26" s="2" t="s">
+      <c r="AA26" s="35">
+        <v>3.56</v>
+      </c>
+      <c r="AB26" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AC26" s="49" t="s">
         <v>564</v>
       </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AD26" s="50">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AE26" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="AF26" s="1" t="s">
+      <c r="AF26" s="57" t="s">
         <v>587</v>
       </c>
+      <c r="AG26" s="58">
+        <v>1.05</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A27" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="52" t="s">
         <v>412</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="53">
+        <v>1.22</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="9">
+        <v>1.62</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="I27" s="40">
+        <v>0.69</v>
+      </c>
+      <c r="J27" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="L27" s="25">
+        <v>2.16</v>
+      </c>
+      <c r="M27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="14">
         <v>20445928</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="O27" s="15">
+        <v>3.06</v>
+      </c>
+      <c r="S27" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="V27" s="2" t="s">
+      <c r="U27" s="35">
+        <v>1.99</v>
+      </c>
+      <c r="V27" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" s="29" t="s">
         <v>516</v>
       </c>
-      <c r="Y27" s="2" t="s">
+      <c r="X27" s="30">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="Y27" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="AB27" s="2" t="s">
+      <c r="AA27" s="35">
+        <v>1.52</v>
+      </c>
+      <c r="AB27" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AC27" s="49">
         <v>40397658</v>
       </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AD27" s="50">
+        <v>1.93</v>
+      </c>
+      <c r="AE27" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="AF27" s="1" t="s">
+      <c r="AF27" s="57" t="s">
         <v>586</v>
       </c>
+      <c r="AG27" s="58">
+        <v>2.4900000000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A28" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="53">
+        <v>0.81</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="9">
+        <v>1.46</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="I28" s="40">
+        <v>2.9</v>
+      </c>
+      <c r="J28" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="24">
         <v>20118907</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="L28" s="25">
+        <v>1.17</v>
+      </c>
+      <c r="M28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="14">
         <v>3635353</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="O28" s="15">
+        <v>3.39</v>
+      </c>
+      <c r="S28" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="U28" s="35">
+        <v>1.99</v>
+      </c>
+      <c r="V28" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="Y28" s="2" t="s">
+      <c r="X28" s="30">
+        <v>2.09</v>
+      </c>
+      <c r="Y28" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z28" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="AB28" s="2" t="s">
+      <c r="AA28" s="35">
+        <v>1.55</v>
+      </c>
+      <c r="AB28" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AC28" s="49" t="s">
         <v>565</v>
       </c>
-      <c r="AE28" s="2" t="s">
+      <c r="AD28" s="50">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AE28" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="AF28" s="1" t="s">
+      <c r="AF28" s="57" t="s">
         <v>585</v>
       </c>
+      <c r="AG28" s="58">
+        <v>2.09</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A29" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="52" t="s">
         <v>410</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="53">
+        <v>2.35</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G29" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="I29" s="40">
+        <v>3.89</v>
+      </c>
+      <c r="J29" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="L29" s="25">
+        <v>1.29</v>
+      </c>
+      <c r="M29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="O29" s="15">
+        <v>3.08</v>
+      </c>
+      <c r="S29" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="T29" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="V29" s="2" t="s">
+      <c r="U29" s="35">
+        <v>0.76</v>
+      </c>
+      <c r="V29" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="29" t="s">
         <v>518</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="X29" s="30">
+        <v>2.06</v>
+      </c>
+      <c r="Y29" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="Z29" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="AB29" s="2" t="s">
+      <c r="AA29" s="35">
+        <v>2.29</v>
+      </c>
+      <c r="AB29" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AC29" s="49" t="s">
         <v>566</v>
       </c>
-      <c r="AE29" s="2" t="s">
+      <c r="AD29" s="50">
+        <v>1.72</v>
+      </c>
+      <c r="AE29" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="AF29" s="1" t="s">
+      <c r="AF29" s="57" t="s">
         <v>584</v>
       </c>
+      <c r="AG29" s="58">
+        <v>0.69</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="D30" s="2" t="s">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="D30" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="9">
+        <v>1.74</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="I30" s="40">
+        <v>1.47</v>
+      </c>
+      <c r="J30" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="O30" s="15">
+        <v>2.56</v>
+      </c>
+      <c r="S30" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="U30" s="35">
+        <v>2.59</v>
+      </c>
+      <c r="V30" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="W30" s="29" t="s">
         <v>519</v>
       </c>
-      <c r="Y30" s="2" t="s">
+      <c r="X30" s="30">
+        <v>5.22</v>
+      </c>
+      <c r="Y30" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="Z30" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="AB30" s="2" t="s">
+      <c r="AA30" s="35">
+        <v>4.07</v>
+      </c>
+      <c r="AB30" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AC30" s="49">
         <v>24000011859</v>
       </c>
-      <c r="AE30" s="2" t="s">
+      <c r="AD30" s="50">
+        <v>3.79</v>
+      </c>
+      <c r="AE30" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="AF30" s="1" t="s">
+      <c r="AF30" s="57" t="s">
         <v>583</v>
       </c>
+      <c r="AG30" s="58">
+        <v>2.79</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="D31" s="2" t="s">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="D31" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="9">
+        <v>1.03</v>
+      </c>
+      <c r="G31" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="39">
         <v>40084701</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="I31" s="40">
+        <v>3.56</v>
+      </c>
+      <c r="J31" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="24">
         <v>43115525</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="L31" s="25">
+        <v>0.52</v>
+      </c>
+      <c r="M31" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="O31" s="15">
+        <v>3.01</v>
+      </c>
+      <c r="S31" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="V31" s="2" t="s">
+      <c r="U31" s="35">
+        <v>3.49</v>
+      </c>
+      <c r="V31" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="W31" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="Y31" s="2" t="s">
+      <c r="X31" s="30">
+        <v>4.49</v>
+      </c>
+      <c r="Y31" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="Z31" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="AB31" s="2" t="s">
+      <c r="AA31" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="AB31" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AC31" s="49" t="s">
         <v>567</v>
       </c>
-      <c r="AE31" s="2" t="s">
+      <c r="AD31" s="50">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AE31" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AF31" s="57" t="s">
         <v>267</v>
       </c>
+      <c r="AG31" s="58">
+        <v>2.59</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="D32" s="2" t="s">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="D32" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="9">
+        <v>1.81</v>
+      </c>
+      <c r="G32" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="I32" s="40">
+        <v>2.89</v>
+      </c>
+      <c r="J32" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="L32" s="25">
+        <v>1.26</v>
+      </c>
+      <c r="S32" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="T32" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="V32" s="2" t="s">
+      <c r="U32" s="35">
+        <v>2.29</v>
+      </c>
+      <c r="V32" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W32" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="Y32" s="2" t="s">
+      <c r="X32" s="30">
+        <v>3.79</v>
+      </c>
+      <c r="Y32" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="Z32" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="AB32" s="2" t="s">
+      <c r="AA32" s="35">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AB32" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AC32" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="AE32" s="2" t="s">
+      <c r="AD32" s="50">
+        <v>4.07</v>
+      </c>
+      <c r="AE32" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="AF32" s="1" t="s">
+      <c r="AF32" s="57" t="s">
         <v>582</v>
       </c>
+      <c r="AG32" s="58">
+        <v>2.79</v>
+      </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="D33" s="2" t="s">
+    <row r="33" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="D33" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="9">
+        <v>1.42</v>
+      </c>
+      <c r="G33" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="39">
         <v>80177616</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="I33" s="40">
+        <v>2.17</v>
+      </c>
+      <c r="J33" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="L33" s="25">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="S33" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="T33" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="V33" s="2" t="s">
+      <c r="U33" s="35">
+        <v>2.59</v>
+      </c>
+      <c r="V33" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="W33" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="Y33" s="2" t="s">
+      <c r="X33" s="30">
+        <v>3.99</v>
+      </c>
+      <c r="Y33" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="Z33" s="34" t="s">
         <v>543</v>
       </c>
-      <c r="AB33" s="2" t="s">
+      <c r="AA33" s="35">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AB33" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AC33" s="49" t="s">
         <v>569</v>
       </c>
-      <c r="AE33" s="2" t="s">
+      <c r="AD33" s="50">
+        <v>2.06</v>
+      </c>
+      <c r="AE33" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="AF33" s="1" t="s">
+      <c r="AF33" s="57" t="s">
         <v>581</v>
       </c>
+      <c r="AG33" s="58">
+        <v>1.73</v>
+      </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="D34" s="2" t="s">
+    <row r="34" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="D34" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="G34" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="I34" s="40">
+        <v>2.35</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="L34" s="25">
+        <v>1.01</v>
+      </c>
+      <c r="S34" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="V34" s="2" t="s">
+      <c r="U34" s="35">
+        <v>0.89</v>
+      </c>
+      <c r="V34" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="Y34" s="2" t="s">
+      <c r="X34" s="30">
+        <v>4.91</v>
+      </c>
+      <c r="Y34" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="Z34" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="AB34" s="2" t="s">
+      <c r="AA34" s="35">
+        <v>1.19</v>
+      </c>
+      <c r="AB34" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AC34" s="49" t="s">
         <v>570</v>
       </c>
-      <c r="AE34" s="2" t="s">
+      <c r="AD34" s="50">
+        <v>2.61</v>
+      </c>
+      <c r="AE34" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="AF34" s="1" t="s">
+      <c r="AF34" s="57" t="s">
         <v>580</v>
       </c>
+      <c r="AG34" s="58">
+        <v>1.79</v>
+      </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="D35" s="2" t="s">
+    <row r="35" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="D35" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="G35" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="I35" s="40">
+        <v>3.91</v>
+      </c>
+      <c r="J35" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="L35" s="25">
+        <v>1.48</v>
+      </c>
+      <c r="S35" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="V35" s="2" t="s">
+      <c r="U35" s="35">
+        <v>1.19</v>
+      </c>
+      <c r="V35" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W35" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="Y35" s="2" t="s">
+      <c r="X35" s="30">
+        <v>2.91</v>
+      </c>
+      <c r="Y35" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="Z35" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="AB35" s="2" t="s">
+      <c r="AA35" s="35">
+        <v>2.82</v>
+      </c>
+      <c r="AB35" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AC35" s="49" t="s">
         <v>571</v>
       </c>
-      <c r="AE35" s="2" t="s">
+      <c r="AD35" s="50">
+        <v>3.63</v>
+      </c>
+      <c r="AE35" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="AF35" s="1" t="s">
+      <c r="AF35" s="57" t="s">
         <v>579</v>
       </c>
+      <c r="AG35" s="58">
+        <v>3.25</v>
+      </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="D36" s="2" t="s">
+    <row r="36" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="D36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="F36" s="9">
+        <v>1.41</v>
+      </c>
+      <c r="G36" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="I36" s="40">
+        <v>2.48</v>
+      </c>
+      <c r="S36" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="T36" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="V36" s="2" t="s">
+      <c r="U36" s="35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V36" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="Y36" s="2" t="s">
+      <c r="X36" s="30">
+        <v>2.63</v>
+      </c>
+      <c r="Y36" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="Z36" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="AB36" s="2" t="s">
+      <c r="AA36" s="35">
+        <v>1.44</v>
+      </c>
+      <c r="AB36" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AC36" s="49" t="s">
         <v>572</v>
       </c>
+      <c r="AD36" s="50">
+        <v>3.65</v>
+      </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="D37" s="2" t="s">
+    <row r="37" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="D37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="9">
+        <v>1.21</v>
+      </c>
+      <c r="G37" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="I37" s="40">
+        <v>3.65</v>
+      </c>
+      <c r="S37" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="U37" s="35">
+        <v>2.7</v>
+      </c>
+      <c r="V37" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="W37" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="Y37" s="2" t="s">
+      <c r="X37" s="30">
+        <v>2.6</v>
+      </c>
+      <c r="Y37" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="Z37" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="AB37" s="2" t="s">
+      <c r="AA37" s="35">
+        <v>1.99</v>
+      </c>
+      <c r="AB37" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AC37" s="49" t="s">
         <v>573</v>
       </c>
+      <c r="AD37" s="50">
+        <v>1.19</v>
+      </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="D38" s="2" t="s">
+    <row r="38" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="D38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="F38" s="9">
+        <v>1.69</v>
+      </c>
+      <c r="G38" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="I38" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="S38" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="T38" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="V38" s="2" t="s">
+      <c r="U38" s="35">
+        <v>0.99</v>
+      </c>
+      <c r="V38" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W38" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="Y38" s="2" t="s">
+      <c r="X38" s="30">
+        <v>4.49</v>
+      </c>
+      <c r="Y38" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="Z38" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="AB38" s="2" t="s">
+      <c r="AA38" s="35">
+        <v>1.95</v>
+      </c>
+      <c r="AB38" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="AC38" s="1" t="s">
+      <c r="AC38" s="49" t="s">
         <v>574</v>
       </c>
+      <c r="AD38" s="50">
+        <v>3.33</v>
+      </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="D39" s="2" t="s">
+    <row r="39" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="D39" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="F39" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G39" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="I39" s="40">
+        <v>3.99</v>
+      </c>
+      <c r="S39" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="T39" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="V39" s="2" t="s">
+      <c r="U39" s="35">
+        <v>3.33</v>
+      </c>
+      <c r="V39" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="W39" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="Y39" s="2" t="s">
+      <c r="X39" s="30">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="Y39" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="Z39" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="AB39" s="2" t="s">
+      <c r="AA39" s="35">
+        <v>0.88</v>
+      </c>
+      <c r="AB39" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="AC39" s="1" t="s">
+      <c r="AC39" s="49" t="s">
         <v>575</v>
       </c>
+      <c r="AD39" s="50">
+        <v>2.65</v>
+      </c>
     </row>
-    <row r="40" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="D40" s="2" t="s">
+    <row r="40" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="D40" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="F40" s="9">
+        <v>1.33</v>
+      </c>
+      <c r="G40" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="I40" s="40">
+        <v>3.99</v>
+      </c>
+      <c r="S40" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="V40" s="2" t="s">
+      <c r="U40" s="35">
+        <v>3.89</v>
+      </c>
+      <c r="V40" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="W40" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="Y40" s="2" t="s">
+      <c r="X40" s="30">
+        <v>3.29</v>
+      </c>
+      <c r="Y40" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="Z40" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="AB40" s="2" t="s">
+      <c r="AA40" s="35">
+        <v>1.99</v>
+      </c>
+      <c r="AB40" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="AC40" s="1" t="s">
+      <c r="AC40" s="49" t="s">
         <v>576</v>
       </c>
+      <c r="AD40" s="50">
+        <v>1.76</v>
+      </c>
     </row>
-    <row r="41" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="D41" s="2" t="s">
+    <row r="41" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="D41" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="F41" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="G41" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="I41" s="40">
+        <v>1.93</v>
+      </c>
+      <c r="S41" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="T41" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="V41" s="2" t="s">
+      <c r="U41" s="35">
+        <v>3.26</v>
+      </c>
+      <c r="V41" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="W41" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="AB41" s="2" t="s">
+      <c r="X41" s="30">
+        <v>3.81</v>
+      </c>
+      <c r="AB41" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="AC41" s="1" t="s">
+      <c r="AC41" s="49" t="s">
         <v>577</v>
       </c>
+      <c r="AD41" s="50">
+        <v>2.38</v>
+      </c>
     </row>
-    <row r="42" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="D42" s="2" t="s">
+    <row r="42" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="D42" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="F42" s="9">
+        <v>1.64</v>
+      </c>
+      <c r="G42" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="V42" s="2" t="s">
+      <c r="I42" s="40">
+        <v>2.84</v>
+      </c>
+      <c r="V42" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" s="29" t="s">
         <v>529</v>
       </c>
+      <c r="X42" s="30">
+        <v>2.56</v>
+      </c>
     </row>
-    <row r="43" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="G43" s="2" t="s">
+    <row r="43" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="G43" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="V43" s="2" t="s">
+      <c r="I43" s="40">
+        <v>3.84</v>
+      </c>
+      <c r="V43" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="W43" s="29" t="s">
         <v>528</v>
       </c>
+      <c r="X43" s="30">
+        <v>4.66</v>
+      </c>
     </row>
-    <row r="44" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="G44" s="2" t="s">
+    <row r="44" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="G44" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="V44" s="2" t="s">
+      <c r="I44" s="40">
+        <v>1.58</v>
+      </c>
+      <c r="V44" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W44" s="29" t="s">
         <v>527</v>
       </c>
+      <c r="X44" s="30">
+        <v>3.79</v>
+      </c>
     </row>
-    <row r="45" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="G45" s="2" t="s">
+    <row r="45" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="G45" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="V45" s="2" t="s">
+      <c r="I45" s="40">
+        <v>2.99</v>
+      </c>
+      <c r="V45" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="W45" s="29" t="s">
         <v>295</v>
       </c>
+      <c r="X45" s="30">
+        <v>2.79</v>
+      </c>
     </row>
-    <row r="46" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="G46" s="2" t="s">
+    <row r="46" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="G46" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="V46" s="2" t="s">
+      <c r="I46" s="40">
+        <v>3.8</v>
+      </c>
+      <c r="V46" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="W46" s="29" t="s">
         <v>526</v>
       </c>
+      <c r="X46" s="30">
+        <v>2.73</v>
+      </c>
     </row>
-    <row r="47" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="G47" s="2" t="s">
+    <row r="47" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="G47" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="V47" s="2" t="s">
+      <c r="I47" s="40">
+        <v>1.93</v>
+      </c>
+      <c r="V47" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="W47" s="29" t="s">
         <v>525</v>
       </c>
+      <c r="X47" s="30">
+        <v>5.29</v>
+      </c>
     </row>
-    <row r="48" spans="4:32" x14ac:dyDescent="0.45">
-      <c r="G48" s="2" t="s">
+    <row r="48" spans="4:33" x14ac:dyDescent="0.45">
+      <c r="G48" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="V48" s="2" t="s">
+      <c r="I48" s="40">
+        <v>2.95</v>
+      </c>
+      <c r="V48" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="W48" s="29" t="s">
         <v>253</v>
       </c>
+      <c r="X48" s="30">
+        <v>3.29</v>
+      </c>
     </row>
-    <row r="49" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G49" s="2" t="s">
+    <row r="49" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G49" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="V49" s="2" t="s">
+      <c r="I49" s="40">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="V49" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="W49" s="29" t="s">
         <v>508</v>
       </c>
+      <c r="X49" s="30">
+        <v>3.29</v>
+      </c>
     </row>
-    <row r="50" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G50" s="2" t="s">
+    <row r="50" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G50" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="V50" s="2" t="s">
+      <c r="I50" s="40">
+        <v>0.99</v>
+      </c>
+      <c r="V50" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="W50" s="29" t="s">
         <v>507</v>
       </c>
+      <c r="X50" s="30">
+        <v>4.79</v>
+      </c>
     </row>
-    <row r="51" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G51" s="2" t="s">
+    <row r="51" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G51" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="V51" s="2" t="s">
+      <c r="I51" s="40">
+        <v>3.69</v>
+      </c>
+      <c r="V51" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="W51" s="29" t="s">
         <v>506</v>
       </c>
+      <c r="X51" s="30">
+        <v>4.99</v>
+      </c>
     </row>
-    <row r="52" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G52" s="2" t="s">
+    <row r="52" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G52" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="V52" s="2" t="s">
+      <c r="I52" s="40">
+        <v>3.61</v>
+      </c>
+      <c r="V52" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="W52" s="29" t="s">
         <v>505</v>
       </c>
+      <c r="X52" s="30">
+        <v>3.29</v>
+      </c>
     </row>
-    <row r="53" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G53" s="2" t="s">
+    <row r="53" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G53" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="39" t="s">
         <v>198</v>
       </c>
+      <c r="I53" s="40">
+        <v>0.96</v>
+      </c>
     </row>
-    <row r="54" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G54" s="2" t="s">
+    <row r="54" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G54" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="39" t="s">
         <v>197</v>
       </c>
+      <c r="I54" s="40">
+        <v>4.05</v>
+      </c>
     </row>
-    <row r="55" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G55" s="2" t="s">
+    <row r="55" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G55" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="39" t="s">
         <v>196</v>
       </c>
+      <c r="I55" s="40">
+        <v>2.27</v>
+      </c>
     </row>
-    <row r="56" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G56" s="2" t="s">
+    <row r="56" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G56" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="39" t="s">
         <v>195</v>
       </c>
+      <c r="I56" s="40">
+        <v>2.59</v>
+      </c>
     </row>
-    <row r="57" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G57" s="2" t="s">
+    <row r="57" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G57" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="39" t="s">
         <v>194</v>
       </c>
+      <c r="I57" s="40">
+        <v>1.19</v>
+      </c>
     </row>
-    <row r="58" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G58" s="2" t="s">
+    <row r="58" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G58" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="39" t="s">
         <v>193</v>
       </c>
+      <c r="I58" s="40">
+        <v>1.99</v>
+      </c>
     </row>
-    <row r="59" spans="7:23" x14ac:dyDescent="0.45">
-      <c r="G59" s="2" t="s">
+    <row r="59" spans="7:24" x14ac:dyDescent="0.45">
+      <c r="G59" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="39" t="s">
         <v>436</v>
+      </c>
+      <c r="I59" s="40">
+        <v>4.21</v>
       </c>
     </row>
   </sheetData>
